--- a/Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE31F4A-7371-43BA-8DCA-4D17016806C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RYCEY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,143 +689,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19506900</v>
+        <v>20515500</v>
       </c>
       <c r="E8" s="3">
-        <v>19692600</v>
+        <v>19234700</v>
       </c>
       <c r="F8" s="3">
-        <v>18072900</v>
+        <v>19506000</v>
       </c>
       <c r="G8" s="3">
-        <v>18087400</v>
+        <v>17901700</v>
       </c>
       <c r="H8" s="3">
-        <v>19280400</v>
+        <v>17916000</v>
       </c>
       <c r="I8" s="3">
-        <v>16013500</v>
+        <v>19097700</v>
       </c>
       <c r="J8" s="3">
+        <v>15861700</v>
+      </c>
+      <c r="K8" s="3">
         <v>14648000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>33773000</v>
+        <v>18952900</v>
       </c>
       <c r="E9" s="3">
-        <v>15679000</v>
+        <v>32397800</v>
       </c>
       <c r="F9" s="3">
-        <v>13772300</v>
+        <v>15530400</v>
       </c>
       <c r="G9" s="3">
-        <v>13869700</v>
+        <v>13641800</v>
       </c>
       <c r="H9" s="3">
-        <v>31152600</v>
+        <v>13738300</v>
       </c>
       <c r="I9" s="3">
-        <v>12420000</v>
+        <v>30857400</v>
       </c>
       <c r="J9" s="3">
+        <v>12302300</v>
+      </c>
+      <c r="K9" s="3">
         <v>11424500</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-14266100</v>
+        <v>1562600</v>
       </c>
       <c r="E10" s="3">
-        <v>4013600</v>
+        <v>-13163100</v>
       </c>
       <c r="F10" s="3">
-        <v>4300600</v>
+        <v>3975500</v>
       </c>
       <c r="G10" s="3">
-        <v>4217700</v>
+        <v>4259900</v>
       </c>
       <c r="H10" s="3">
-        <v>-11872200</v>
+        <v>4177700</v>
       </c>
       <c r="I10" s="3">
-        <v>3593500</v>
+        <v>-11759700</v>
       </c>
       <c r="J10" s="3">
+        <v>3559500</v>
+      </c>
+      <c r="K10" s="3">
         <v>3223500</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -802,35 +850,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>913900</v>
+        <v>843900</v>
       </c>
       <c r="E12" s="3">
-        <v>1015200</v>
+        <v>905200</v>
       </c>
       <c r="F12" s="3">
-        <v>896700</v>
+        <v>1005600</v>
       </c>
       <c r="G12" s="3">
-        <v>879600</v>
+        <v>888200</v>
       </c>
       <c r="H12" s="3">
-        <v>1590700</v>
+        <v>871300</v>
       </c>
       <c r="I12" s="3">
-        <v>1474800</v>
+        <v>1575600</v>
       </c>
       <c r="J12" s="3">
+        <v>1460800</v>
+      </c>
+      <c r="K12" s="3">
         <v>609700</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -855,63 +907,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-1403700</v>
+        <v>-457800</v>
       </c>
       <c r="E14" s="3">
-        <v>1290500</v>
+        <v>-1023900</v>
       </c>
       <c r="F14" s="3">
+        <v>1278200</v>
+      </c>
+      <c r="G14" s="3">
         <v>-2600</v>
       </c>
-      <c r="G14" s="3">
-        <v>9200</v>
-      </c>
       <c r="H14" s="3">
-        <v>-454300</v>
+        <v>9100</v>
       </c>
       <c r="I14" s="3">
-        <v>-920400</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>-450000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-911700</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>196200</v>
+        <v>148700</v>
       </c>
       <c r="E15" s="3">
-        <v>193600</v>
+        <v>194300</v>
       </c>
       <c r="F15" s="3">
-        <v>180400</v>
+        <v>191700</v>
       </c>
       <c r="G15" s="3">
-        <v>164600</v>
+        <v>178700</v>
       </c>
       <c r="H15" s="3">
-        <v>171200</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
+        <v>163000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>169600</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -920,62 +981,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17621300</v>
+        <v>21562900</v>
       </c>
       <c r="E17" s="3">
-        <v>19638600</v>
+        <v>17733400</v>
       </c>
       <c r="F17" s="3">
-        <v>16096400</v>
+        <v>19452500</v>
       </c>
       <c r="G17" s="3">
-        <v>16266300</v>
+        <v>15943900</v>
       </c>
       <c r="H17" s="3">
-        <v>16930000</v>
+        <v>16112100</v>
       </c>
       <c r="I17" s="3">
-        <v>13278500</v>
+        <v>16769500</v>
       </c>
       <c r="J17" s="3">
+        <v>13152700</v>
+      </c>
+      <c r="K17" s="3">
         <v>13086300</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1885600</v>
+        <v>-1047400</v>
       </c>
       <c r="E18" s="3">
-        <v>54000</v>
+        <v>1501300</v>
       </c>
       <c r="F18" s="3">
-        <v>1976500</v>
+        <v>53500</v>
       </c>
       <c r="G18" s="3">
-        <v>1821100</v>
+        <v>1957800</v>
       </c>
       <c r="H18" s="3">
-        <v>2350500</v>
+        <v>1803900</v>
       </c>
       <c r="I18" s="3">
-        <v>2735000</v>
+        <v>2328200</v>
       </c>
       <c r="J18" s="3">
+        <v>2709100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1561700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -987,143 +1055,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3705400</v>
+        <v>-2656900</v>
       </c>
       <c r="E20" s="3">
-        <v>-6057200</v>
+        <v>3670300</v>
       </c>
       <c r="F20" s="3">
-        <v>-1672300</v>
+        <v>-5999800</v>
       </c>
       <c r="G20" s="3">
-        <v>-1649900</v>
+        <v>-1656500</v>
       </c>
       <c r="H20" s="3">
-        <v>-35600</v>
+        <v>-1634300</v>
       </c>
       <c r="I20" s="3">
-        <v>974400</v>
+        <v>-35200</v>
       </c>
       <c r="J20" s="3">
+        <v>965200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-39500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6626200</v>
+        <v>-2514600</v>
       </c>
       <c r="E21" s="3">
-        <v>-4914400</v>
+        <v>6209600</v>
       </c>
       <c r="F21" s="3">
-        <v>1327500</v>
+        <v>-4851700</v>
       </c>
       <c r="G21" s="3">
-        <v>1144600</v>
+        <v>1330000</v>
       </c>
       <c r="H21" s="3">
-        <v>3364400</v>
+        <v>1148200</v>
       </c>
       <c r="I21" s="3">
-        <v>4348300</v>
+        <v>3348100</v>
       </c>
       <c r="J21" s="3">
+        <v>4316500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2060100</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>88200</v>
+        <v>139600</v>
       </c>
       <c r="E22" s="3">
-        <v>101400</v>
+        <v>87400</v>
       </c>
       <c r="F22" s="3">
-        <v>93500</v>
+        <v>100400</v>
       </c>
       <c r="G22" s="3">
-        <v>83000</v>
+        <v>92600</v>
       </c>
       <c r="H22" s="3">
-        <v>76400</v>
+        <v>82200</v>
       </c>
       <c r="I22" s="3">
+        <v>75600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K22" s="3">
         <v>67200</v>
       </c>
-      <c r="J22" s="3">
-        <v>67200</v>
-      </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5502900</v>
+        <v>-3843800</v>
       </c>
       <c r="E23" s="3">
-        <v>-6104600</v>
+        <v>5084200</v>
       </c>
       <c r="F23" s="3">
-        <v>210700</v>
+        <v>-6046800</v>
       </c>
       <c r="G23" s="3">
-        <v>88200</v>
+        <v>208700</v>
       </c>
       <c r="H23" s="3">
-        <v>2238500</v>
+        <v>87400</v>
       </c>
       <c r="I23" s="3">
-        <v>3642200</v>
+        <v>2217300</v>
       </c>
       <c r="J23" s="3">
+        <v>3607700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1455100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>612300</v>
+        <v>-666500</v>
       </c>
       <c r="E24" s="3">
-        <v>-795300</v>
+        <v>606500</v>
       </c>
       <c r="F24" s="3">
-        <v>100100</v>
+        <v>-787800</v>
       </c>
       <c r="G24" s="3">
-        <v>198800</v>
+        <v>99100</v>
       </c>
       <c r="H24" s="3">
-        <v>496400</v>
+        <v>197000</v>
       </c>
       <c r="I24" s="3">
-        <v>567500</v>
+        <v>491700</v>
       </c>
       <c r="J24" s="3">
+        <v>562200</v>
+      </c>
+      <c r="K24" s="3">
         <v>338400</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1148,63 +1232,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4890600</v>
+        <v>-3177300</v>
       </c>
       <c r="E26" s="3">
-        <v>-5309300</v>
+        <v>4477700</v>
       </c>
       <c r="F26" s="3">
-        <v>110600</v>
+        <v>-5259000</v>
       </c>
       <c r="G26" s="3">
-        <v>-110600</v>
+        <v>109600</v>
       </c>
       <c r="H26" s="3">
-        <v>1742100</v>
+        <v>-109600</v>
       </c>
       <c r="I26" s="3">
-        <v>3074700</v>
+        <v>1725600</v>
       </c>
       <c r="J26" s="3">
+        <v>3045600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1116600</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4889200</v>
+        <v>-3187700</v>
       </c>
       <c r="E27" s="3">
-        <v>-5309300</v>
+        <v>4476400</v>
       </c>
       <c r="F27" s="3">
-        <v>109300</v>
+        <v>-5259000</v>
       </c>
       <c r="G27" s="3">
-        <v>-96100</v>
+        <v>108300</v>
       </c>
       <c r="H27" s="3">
-        <v>1726300</v>
+        <v>-95200</v>
       </c>
       <c r="I27" s="3">
-        <v>3056300</v>
+        <v>1710000</v>
       </c>
       <c r="J27" s="3">
+        <v>3027300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1119300</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1229,36 +1322,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-65800</v>
-      </c>
-      <c r="E29" s="3" t="s">
+        <v>56100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
-        <v>187000</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>73700</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
+        <v>185200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>73000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1283,9 +1382,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1310,63 +1412,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3705400</v>
+        <v>2656900</v>
       </c>
       <c r="E32" s="3">
-        <v>6057200</v>
+        <v>-3670300</v>
       </c>
       <c r="F32" s="3">
-        <v>1672300</v>
+        <v>5999800</v>
       </c>
       <c r="G32" s="3">
-        <v>1649900</v>
+        <v>1656500</v>
       </c>
       <c r="H32" s="3">
-        <v>35600</v>
+        <v>1634300</v>
       </c>
       <c r="I32" s="3">
-        <v>-974400</v>
+        <v>35200</v>
       </c>
       <c r="J32" s="3">
+        <v>-965200</v>
+      </c>
+      <c r="K32" s="3">
         <v>39500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4823400</v>
+        <v>-3131600</v>
       </c>
       <c r="E33" s="3">
-        <v>-5309300</v>
+        <v>4411200</v>
       </c>
       <c r="F33" s="3">
-        <v>109300</v>
+        <v>-5259000</v>
       </c>
       <c r="G33" s="3">
-        <v>90900</v>
+        <v>108300</v>
       </c>
       <c r="H33" s="3">
-        <v>1800100</v>
+        <v>90000</v>
       </c>
       <c r="I33" s="3">
-        <v>3056300</v>
+        <v>1783000</v>
       </c>
       <c r="J33" s="3">
+        <v>3027300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1119300</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1391,68 +1502,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4823400</v>
+        <v>-3131600</v>
       </c>
       <c r="E35" s="3">
-        <v>-5309300</v>
+        <v>4411200</v>
       </c>
       <c r="F35" s="3">
-        <v>109300</v>
+        <v>-5259000</v>
       </c>
       <c r="G35" s="3">
-        <v>90900</v>
+        <v>108300</v>
       </c>
       <c r="H35" s="3">
-        <v>1800100</v>
+        <v>90000</v>
       </c>
       <c r="I35" s="3">
-        <v>3056300</v>
+        <v>1783000</v>
       </c>
       <c r="J35" s="3">
+        <v>3027300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1119300</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1464,8 +1584,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1477,251 +1598,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7746700</v>
+        <v>6447200</v>
       </c>
       <c r="E41" s="3">
-        <v>3604100</v>
+        <v>7673300</v>
       </c>
       <c r="F41" s="3">
-        <v>4154500</v>
+        <v>3569900</v>
       </c>
       <c r="G41" s="3">
-        <v>3729100</v>
+        <v>4115100</v>
       </c>
       <c r="H41" s="3">
-        <v>4877400</v>
+        <v>3693800</v>
       </c>
       <c r="I41" s="3">
-        <v>8232600</v>
+        <v>4831200</v>
       </c>
       <c r="J41" s="3">
+        <v>8154500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1706600</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4000</v>
+        <v>7800</v>
       </c>
       <c r="E42" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="F42" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G42" s="3">
         <v>2600</v>
       </c>
-      <c r="G42" s="3">
-        <v>9200</v>
-      </c>
       <c r="H42" s="3">
-        <v>422700</v>
+        <v>9100</v>
       </c>
       <c r="I42" s="3">
-        <v>2008100</v>
+        <v>418700</v>
       </c>
       <c r="J42" s="3">
+        <v>1989100</v>
+      </c>
+      <c r="K42" s="3">
         <v>32900</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18548300</v>
+        <v>8071100</v>
       </c>
       <c r="E43" s="3">
-        <v>8942300</v>
+        <v>16236100</v>
       </c>
       <c r="F43" s="3">
-        <v>7995500</v>
+        <v>8857600</v>
       </c>
       <c r="G43" s="3">
-        <v>7015900</v>
+        <v>7919800</v>
       </c>
       <c r="H43" s="3">
-        <v>6416700</v>
+        <v>6949400</v>
       </c>
       <c r="I43" s="3">
-        <v>15818600</v>
+        <v>6355900</v>
       </c>
       <c r="J43" s="3">
+        <v>15668700</v>
+      </c>
+      <c r="K43" s="3">
         <v>5099900</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9939100</v>
+        <v>5591600</v>
       </c>
       <c r="E44" s="3">
-        <v>4063600</v>
+        <v>10043200</v>
       </c>
       <c r="F44" s="3">
-        <v>3472400</v>
+        <v>4025100</v>
       </c>
       <c r="G44" s="3">
-        <v>3644900</v>
+        <v>3439500</v>
       </c>
       <c r="H44" s="3">
-        <v>4370400</v>
+        <v>3610300</v>
       </c>
       <c r="I44" s="3">
-        <v>10768700</v>
+        <v>4329000</v>
       </c>
       <c r="J44" s="3">
+        <v>10666600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3372300</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>338400</v>
+        <v>1820800</v>
       </c>
       <c r="E45" s="3">
-        <v>317300</v>
+        <v>357400</v>
       </c>
       <c r="F45" s="3">
-        <v>329200</v>
+        <v>314300</v>
       </c>
       <c r="G45" s="3">
-        <v>333100</v>
+        <v>326100</v>
       </c>
       <c r="H45" s="3">
-        <v>791400</v>
+        <v>330000</v>
       </c>
       <c r="I45" s="3">
-        <v>853300</v>
+        <v>783900</v>
       </c>
       <c r="J45" s="3">
+        <v>845200</v>
+      </c>
+      <c r="K45" s="3">
         <v>737400</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17440900</v>
+        <v>21938500</v>
       </c>
       <c r="E46" s="3">
-        <v>16931300</v>
+        <v>17108600</v>
       </c>
       <c r="F46" s="3">
-        <v>15954200</v>
+        <v>16770800</v>
       </c>
       <c r="G46" s="3">
-        <v>14732200</v>
+        <v>15803000</v>
       </c>
       <c r="H46" s="3">
-        <v>16878600</v>
+        <v>14592600</v>
       </c>
       <c r="I46" s="3">
-        <v>12632000</v>
+        <v>16718600</v>
       </c>
       <c r="J46" s="3">
+        <v>12512200</v>
+      </c>
+      <c r="K46" s="3">
         <v>10949100</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>940200</v>
+        <v>566100</v>
       </c>
       <c r="E47" s="3">
-        <v>1161400</v>
+        <v>523000</v>
       </c>
       <c r="F47" s="3">
-        <v>801900</v>
+        <v>1150400</v>
       </c>
       <c r="G47" s="3">
-        <v>750600</v>
+        <v>794300</v>
       </c>
       <c r="H47" s="3">
-        <v>826900</v>
+        <v>743500</v>
       </c>
       <c r="I47" s="3">
-        <v>4756200</v>
+        <v>819100</v>
       </c>
       <c r="J47" s="3">
+        <v>4711200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2225400</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6152000</v>
+        <v>6428900</v>
       </c>
       <c r="E48" s="3">
-        <v>5417300</v>
+        <v>6075500</v>
       </c>
       <c r="F48" s="3">
-        <v>4595600</v>
+        <v>5365900</v>
       </c>
       <c r="G48" s="3">
-        <v>4537700</v>
+        <v>4552000</v>
       </c>
       <c r="H48" s="3">
-        <v>4466600</v>
+        <v>4494700</v>
       </c>
       <c r="I48" s="3">
-        <v>10128700</v>
+        <v>4424200</v>
       </c>
       <c r="J48" s="3">
+        <v>10032800</v>
+      </c>
+      <c r="K48" s="3">
         <v>3078700</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7459600</v>
+        <v>6906300</v>
       </c>
       <c r="E49" s="3">
-        <v>6689300</v>
+        <v>7258500</v>
       </c>
       <c r="F49" s="3">
-        <v>6116500</v>
+        <v>6625900</v>
       </c>
       <c r="G49" s="3">
-        <v>6325900</v>
+        <v>6058500</v>
       </c>
       <c r="H49" s="3">
-        <v>6566800</v>
+        <v>6265900</v>
       </c>
       <c r="I49" s="3">
-        <v>11460000</v>
+        <v>6504600</v>
       </c>
       <c r="J49" s="3">
+        <v>11351400</v>
+      </c>
+      <c r="K49" s="3">
         <v>3795000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1746,9 +1895,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1773,36 +1925,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4710200</v>
+        <v>5711600</v>
       </c>
       <c r="E52" s="3">
-        <v>3428900</v>
+        <v>5459800</v>
       </c>
       <c r="F52" s="3">
-        <v>1927800</v>
+        <v>3396400</v>
       </c>
       <c r="G52" s="3">
-        <v>2918000</v>
+        <v>1909500</v>
       </c>
       <c r="H52" s="3">
-        <v>1630200</v>
+        <v>2890400</v>
       </c>
       <c r="I52" s="3">
-        <v>3309100</v>
+        <v>1614700</v>
       </c>
       <c r="J52" s="3">
+        <v>3277700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1577500</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1827,36 +1985,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36702900</v>
+        <v>41551400</v>
       </c>
       <c r="E54" s="3">
-        <v>33628200</v>
+        <v>36425500</v>
       </c>
       <c r="F54" s="3">
-        <v>29396000</v>
+        <v>33309500</v>
       </c>
       <c r="G54" s="3">
-        <v>29264300</v>
+        <v>29117400</v>
       </c>
       <c r="H54" s="3">
-        <v>30369100</v>
+        <v>28987000</v>
       </c>
       <c r="I54" s="3">
-        <v>23894500</v>
+        <v>30081300</v>
       </c>
       <c r="J54" s="3">
+        <v>23668000</v>
+      </c>
+      <c r="K54" s="3">
         <v>21625600</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1868,8 +2032,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1881,170 +2046,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18641800</v>
+        <v>4115100</v>
       </c>
       <c r="E57" s="3">
-        <v>2961500</v>
+        <v>17882100</v>
       </c>
       <c r="F57" s="3">
-        <v>2099000</v>
+        <v>2933400</v>
       </c>
       <c r="G57" s="3">
-        <v>2084500</v>
+        <v>2079100</v>
       </c>
       <c r="H57" s="3">
-        <v>2055500</v>
+        <v>2064700</v>
       </c>
       <c r="I57" s="3">
-        <v>14267400</v>
+        <v>2036000</v>
       </c>
       <c r="J57" s="3">
+        <v>14132200</v>
+      </c>
+      <c r="K57" s="3">
         <v>3773900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>216000</v>
+        <v>1119100</v>
       </c>
       <c r="E58" s="3">
-        <v>226500</v>
+        <v>213900</v>
       </c>
       <c r="F58" s="3">
-        <v>551700</v>
+        <v>224300</v>
       </c>
       <c r="G58" s="3">
-        <v>89500</v>
+        <v>546500</v>
       </c>
       <c r="H58" s="3">
-        <v>272600</v>
+        <v>88700</v>
       </c>
       <c r="I58" s="3">
-        <v>392400</v>
+        <v>270000</v>
       </c>
       <c r="J58" s="3">
+        <v>388700</v>
+      </c>
+      <c r="K58" s="3">
         <v>26300</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10966200</v>
+        <v>14136100</v>
       </c>
       <c r="E59" s="3">
-        <v>9366300</v>
+        <v>19370300</v>
       </c>
       <c r="F59" s="3">
-        <v>8111400</v>
+        <v>9277600</v>
       </c>
       <c r="G59" s="3">
-        <v>7945500</v>
+        <v>8034500</v>
       </c>
       <c r="H59" s="3">
-        <v>10550100</v>
+        <v>7870200</v>
       </c>
       <c r="I59" s="3">
-        <v>12714900</v>
+        <v>10450100</v>
       </c>
       <c r="J59" s="3">
+        <v>12594400</v>
+      </c>
+      <c r="K59" s="3">
         <v>5306700</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17170900</v>
+        <v>19370300</v>
       </c>
       <c r="E60" s="3">
-        <v>12554300</v>
+        <v>16213900</v>
       </c>
       <c r="F60" s="3">
-        <v>10762100</v>
+        <v>12435300</v>
       </c>
       <c r="G60" s="3">
-        <v>10119500</v>
+        <v>10660100</v>
       </c>
       <c r="H60" s="3">
-        <v>12878200</v>
+        <v>10023600</v>
       </c>
       <c r="I60" s="3">
-        <v>9491400</v>
+        <v>12756200</v>
       </c>
       <c r="J60" s="3">
+        <v>9401500</v>
+      </c>
+      <c r="K60" s="3">
         <v>9106900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4485000</v>
+        <v>4961600</v>
       </c>
       <c r="E61" s="3">
-        <v>4194000</v>
+        <v>4442500</v>
       </c>
       <c r="F61" s="3">
-        <v>3796300</v>
+        <v>4154200</v>
       </c>
       <c r="G61" s="3">
-        <v>2887700</v>
+        <v>3760300</v>
       </c>
       <c r="H61" s="3">
-        <v>3323600</v>
+        <v>2860400</v>
       </c>
       <c r="I61" s="3">
-        <v>2175300</v>
+        <v>3292100</v>
       </c>
       <c r="J61" s="3">
+        <v>2154700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1559100</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18953900</v>
+        <v>18101200</v>
       </c>
       <c r="E62" s="3">
-        <v>14425400</v>
+        <v>23002800</v>
       </c>
       <c r="F62" s="3">
-        <v>8232600</v>
+        <v>14288700</v>
       </c>
       <c r="G62" s="3">
-        <v>7846800</v>
+        <v>8154500</v>
       </c>
       <c r="H62" s="3">
-        <v>5867600</v>
+        <v>7772400</v>
       </c>
       <c r="I62" s="3">
-        <v>8942300</v>
+        <v>5812000</v>
       </c>
       <c r="J62" s="3">
+        <v>8857600</v>
+      </c>
+      <c r="K62" s="3">
         <v>5009100</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2069,9 +2253,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,9 +2283,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2123,36 +2313,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35112200</v>
+        <v>42952200</v>
       </c>
       <c r="E66" s="3">
-        <v>31176300</v>
+        <v>35212500</v>
       </c>
       <c r="F66" s="3">
-        <v>22793600</v>
+        <v>30880800</v>
       </c>
       <c r="G66" s="3">
-        <v>20860600</v>
+        <v>22577600</v>
       </c>
       <c r="H66" s="3">
-        <v>22988500</v>
+        <v>20662900</v>
       </c>
       <c r="I66" s="3">
-        <v>16021400</v>
+        <v>22770600</v>
       </c>
       <c r="J66" s="3">
+        <v>15869500</v>
+      </c>
+      <c r="K66" s="3">
         <v>15676400</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2164,8 +2360,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2190,9 +2387,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2217,9 +2417,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2244,9 +2447,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2271,36 +2477,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>996800</v>
+        <v>-3161600</v>
       </c>
       <c r="E72" s="3">
-        <v>1871200</v>
+        <v>628700</v>
       </c>
       <c r="F72" s="3">
-        <v>6013800</v>
+        <v>1853400</v>
       </c>
       <c r="G72" s="3">
-        <v>7779600</v>
+        <v>5956800</v>
       </c>
       <c r="H72" s="3">
-        <v>6869700</v>
+        <v>7705900</v>
       </c>
       <c r="I72" s="3">
-        <v>15068000</v>
+        <v>6804600</v>
       </c>
       <c r="J72" s="3">
+        <v>14925200</v>
+      </c>
+      <c r="K72" s="3">
         <v>5456800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2325,9 +2537,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2352,9 +2567,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2379,36 +2597,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1590700</v>
+        <v>-1400800</v>
       </c>
       <c r="E76" s="3">
-        <v>2451900</v>
+        <v>1213000</v>
       </c>
       <c r="F76" s="3">
-        <v>6602400</v>
+        <v>2428600</v>
       </c>
       <c r="G76" s="3">
-        <v>8403800</v>
+        <v>6539800</v>
       </c>
       <c r="H76" s="3">
-        <v>7380600</v>
+        <v>8324100</v>
       </c>
       <c r="I76" s="3">
-        <v>7873100</v>
+        <v>7310700</v>
       </c>
       <c r="J76" s="3">
+        <v>7798500</v>
+      </c>
+      <c r="K76" s="3">
         <v>5949300</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2433,68 +2657,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4823400</v>
+        <v>-3131600</v>
       </c>
       <c r="E81" s="3">
-        <v>-5309300</v>
+        <v>4411200</v>
       </c>
       <c r="F81" s="3">
-        <v>109300</v>
+        <v>-5259000</v>
       </c>
       <c r="G81" s="3">
-        <v>90900</v>
+        <v>108300</v>
       </c>
       <c r="H81" s="3">
-        <v>1800100</v>
+        <v>90000</v>
       </c>
       <c r="I81" s="3">
-        <v>3056300</v>
+        <v>1783000</v>
       </c>
       <c r="J81" s="3">
+        <v>3027300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1119300</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2506,35 +2739,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1038900</v>
+        <v>1176500</v>
       </c>
       <c r="E83" s="3">
-        <v>1092900</v>
+        <v>1026500</v>
       </c>
       <c r="F83" s="3">
-        <v>1027100</v>
+        <v>1082600</v>
       </c>
       <c r="G83" s="3">
-        <v>977100</v>
+        <v>1017400</v>
       </c>
       <c r="H83" s="3">
-        <v>1053400</v>
+        <v>967800</v>
       </c>
       <c r="I83" s="3">
-        <v>641300</v>
+        <v>1043400</v>
       </c>
       <c r="J83" s="3">
+        <v>635200</v>
+      </c>
+      <c r="K83" s="3">
         <v>539900</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2559,9 +2796,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2586,9 +2826,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2613,9 +2856,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2640,9 +2886,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2667,36 +2916,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1991000</v>
+        <v>2903400</v>
       </c>
       <c r="E89" s="3">
-        <v>1858000</v>
+        <v>1972100</v>
       </c>
       <c r="F89" s="3">
-        <v>1440600</v>
+        <v>1840400</v>
       </c>
       <c r="G89" s="3">
-        <v>1713100</v>
+        <v>1426900</v>
       </c>
       <c r="H89" s="3">
-        <v>2686300</v>
+        <v>1696900</v>
       </c>
       <c r="I89" s="3">
-        <v>1652600</v>
+        <v>2660800</v>
       </c>
       <c r="J89" s="3">
+        <v>1636900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1719700</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2708,35 +2963,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1906700</v>
+        <v>-1180400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1601200</v>
+        <v>-952100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1178500</v>
+        <v>-763000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1481400</v>
+        <v>-635200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1543300</v>
+        <v>-845200</v>
       </c>
       <c r="I91" s="3">
-        <v>-902000</v>
+        <v>-872600</v>
       </c>
       <c r="J91" s="3">
+        <v>-567400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1020500</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2761,9 +3020,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2788,36 +3050,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1594600</v>
+        <v>-1271700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1794800</v>
+        <v>-1505200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1310200</v>
+        <v>-1777800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2588800</v>
+        <v>-1297800</v>
       </c>
       <c r="H94" s="3">
-        <v>-974400</v>
+        <v>-2564300</v>
       </c>
       <c r="I94" s="3">
-        <v>558300</v>
+        <v>-965200</v>
       </c>
       <c r="J94" s="3">
+        <v>553000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2906200</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2829,8 +3097,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2855,9 +3124,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2882,9 +3154,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2909,9 +3184,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2936,88 +3214,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-92200</v>
+        <v>915600</v>
       </c>
       <c r="E100" s="3">
-        <v>-973100</v>
+        <v>-165600</v>
       </c>
       <c r="F100" s="3">
-        <v>291000</v>
+        <v>-963900</v>
       </c>
       <c r="G100" s="3">
-        <v>-616300</v>
+        <v>288300</v>
       </c>
       <c r="H100" s="3">
-        <v>179100</v>
+        <v>-610400</v>
       </c>
       <c r="I100" s="3">
-        <v>-435900</v>
+        <v>177400</v>
       </c>
       <c r="J100" s="3">
+        <v>-431700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-862500</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-90900</v>
+        <v>86100</v>
       </c>
       <c r="E101" s="3">
-        <v>376600</v>
+        <v>-90000</v>
       </c>
       <c r="F101" s="3">
-        <v>-7900</v>
+        <v>373000</v>
       </c>
       <c r="G101" s="3">
-        <v>10500</v>
+        <v>-7800</v>
       </c>
       <c r="H101" s="3">
-        <v>-44800</v>
+        <v>10400</v>
       </c>
       <c r="I101" s="3">
-        <v>-71100</v>
+        <v>-44300</v>
       </c>
       <c r="J101" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5300</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>213300</v>
+        <v>2633400</v>
       </c>
       <c r="E102" s="3">
-        <v>-533300</v>
+        <v>211300</v>
       </c>
       <c r="F102" s="3">
-        <v>413500</v>
+        <v>-528200</v>
       </c>
       <c r="G102" s="3">
-        <v>-1481400</v>
+        <v>409600</v>
       </c>
       <c r="H102" s="3">
-        <v>1846100</v>
+        <v>-1467300</v>
       </c>
       <c r="I102" s="3">
-        <v>1703900</v>
+        <v>1828600</v>
       </c>
       <c r="J102" s="3">
+        <v>1687800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2054200</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/RYCEY_YR_FIN.xlsx
+++ b/Financials/Yearly/RYCEY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE31F4A-7371-43BA-8DCA-4D17016806C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="RYCEY" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,36 +654,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -748,97 +713,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20515500</v>
+        <v>20334600</v>
       </c>
       <c r="E8" s="3">
-        <v>19234700</v>
+        <v>19065100</v>
       </c>
       <c r="F8" s="3">
-        <v>19506000</v>
+        <v>19334000</v>
       </c>
       <c r="G8" s="3">
-        <v>17901700</v>
+        <v>17743800</v>
       </c>
       <c r="H8" s="3">
-        <v>17916000</v>
+        <v>17758000</v>
       </c>
       <c r="I8" s="3">
-        <v>19097700</v>
+        <v>18929300</v>
       </c>
       <c r="J8" s="3">
-        <v>15861700</v>
+        <v>15721900</v>
       </c>
       <c r="K8" s="3">
         <v>14648000</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18952900</v>
+        <v>18785800</v>
       </c>
       <c r="E9" s="3">
-        <v>32397800</v>
+        <v>32112100</v>
       </c>
       <c r="F9" s="3">
-        <v>15530400</v>
+        <v>15393500</v>
       </c>
       <c r="G9" s="3">
-        <v>13641800</v>
+        <v>13521500</v>
       </c>
       <c r="H9" s="3">
-        <v>13738300</v>
+        <v>13617200</v>
       </c>
       <c r="I9" s="3">
-        <v>30857400</v>
+        <v>30585300</v>
       </c>
       <c r="J9" s="3">
-        <v>12302300</v>
+        <v>12193800</v>
       </c>
       <c r="K9" s="3">
         <v>11424500</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1562600</v>
+        <v>1548800</v>
       </c>
       <c r="E10" s="3">
-        <v>-13163100</v>
+        <v>-13047000</v>
       </c>
       <c r="F10" s="3">
-        <v>3975500</v>
+        <v>3940500</v>
       </c>
       <c r="G10" s="3">
-        <v>4259900</v>
+        <v>4222300</v>
       </c>
       <c r="H10" s="3">
-        <v>4177700</v>
+        <v>4140900</v>
       </c>
       <c r="I10" s="3">
-        <v>-11759700</v>
+        <v>-11656000</v>
       </c>
       <c r="J10" s="3">
-        <v>3559500</v>
+        <v>3528100</v>
       </c>
       <c r="K10" s="3">
         <v>3223500</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,37 +817,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>843900</v>
+        <v>836400</v>
       </c>
       <c r="E12" s="3">
-        <v>905200</v>
+        <v>897200</v>
       </c>
       <c r="F12" s="3">
-        <v>1005600</v>
+        <v>996800</v>
       </c>
       <c r="G12" s="3">
-        <v>888200</v>
+        <v>880400</v>
       </c>
       <c r="H12" s="3">
-        <v>871300</v>
+        <v>863600</v>
       </c>
       <c r="I12" s="3">
-        <v>1575600</v>
+        <v>1561700</v>
       </c>
       <c r="J12" s="3">
-        <v>1460800</v>
+        <v>1447900</v>
       </c>
       <c r="K12" s="3">
         <v>609700</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -912,57 +877,57 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-457800</v>
+        <v>-453800</v>
       </c>
       <c r="E14" s="3">
-        <v>-1023900</v>
+        <v>-1014900</v>
       </c>
       <c r="F14" s="3">
-        <v>1278200</v>
+        <v>1267000</v>
       </c>
       <c r="G14" s="3">
         <v>-2600</v>
       </c>
       <c r="H14" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="I14" s="3">
-        <v>-450000</v>
+        <v>-446000</v>
       </c>
       <c r="J14" s="3">
-        <v>-911700</v>
+        <v>-903700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>148700</v>
+        <v>147400</v>
       </c>
       <c r="E15" s="3">
-        <v>194300</v>
+        <v>192600</v>
       </c>
       <c r="F15" s="3">
-        <v>191700</v>
+        <v>190000</v>
       </c>
       <c r="G15" s="3">
-        <v>178700</v>
+        <v>177100</v>
       </c>
       <c r="H15" s="3">
-        <v>163000</v>
+        <v>161600</v>
       </c>
       <c r="I15" s="3">
-        <v>169600</v>
+        <v>168100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
@@ -972,7 +937,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -983,67 +948,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21562900</v>
+        <v>21372700</v>
       </c>
       <c r="E17" s="3">
-        <v>17733400</v>
+        <v>17577000</v>
       </c>
       <c r="F17" s="3">
-        <v>19452500</v>
+        <v>19281000</v>
       </c>
       <c r="G17" s="3">
-        <v>15943900</v>
+        <v>15803300</v>
       </c>
       <c r="H17" s="3">
-        <v>16112100</v>
+        <v>15970100</v>
       </c>
       <c r="I17" s="3">
-        <v>16769500</v>
+        <v>16621700</v>
       </c>
       <c r="J17" s="3">
-        <v>13152700</v>
+        <v>13036700</v>
       </c>
       <c r="K17" s="3">
         <v>13086300</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1047400</v>
+        <v>-1038100</v>
       </c>
       <c r="E18" s="3">
-        <v>1501300</v>
+        <v>1488000</v>
       </c>
       <c r="F18" s="3">
-        <v>53500</v>
+        <v>53000</v>
       </c>
       <c r="G18" s="3">
-        <v>1957800</v>
+        <v>1940500</v>
       </c>
       <c r="H18" s="3">
-        <v>1803900</v>
+        <v>1788000</v>
       </c>
       <c r="I18" s="3">
-        <v>2328200</v>
+        <v>2307700</v>
       </c>
       <c r="J18" s="3">
-        <v>2709100</v>
+        <v>2685200</v>
       </c>
       <c r="K18" s="3">
         <v>1561700</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1057,157 +1022,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2656900</v>
+        <v>-2633500</v>
       </c>
       <c r="E20" s="3">
-        <v>3670300</v>
+        <v>3638000</v>
       </c>
       <c r="F20" s="3">
-        <v>-5999800</v>
+        <v>-5946900</v>
       </c>
       <c r="G20" s="3">
-        <v>-1656500</v>
+        <v>-1641900</v>
       </c>
       <c r="H20" s="3">
-        <v>-1634300</v>
+        <v>-1619900</v>
       </c>
       <c r="I20" s="3">
-        <v>-35200</v>
+        <v>-34900</v>
       </c>
       <c r="J20" s="3">
-        <v>965200</v>
+        <v>956700</v>
       </c>
       <c r="K20" s="3">
         <v>-39500</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2514600</v>
+        <v>-2499000</v>
       </c>
       <c r="E21" s="3">
-        <v>6209600</v>
+        <v>6149100</v>
       </c>
       <c r="F21" s="3">
-        <v>-4851700</v>
+        <v>-4814900</v>
       </c>
       <c r="G21" s="3">
-        <v>1330000</v>
+        <v>1312600</v>
       </c>
       <c r="H21" s="3">
-        <v>1148200</v>
+        <v>1132700</v>
       </c>
       <c r="I21" s="3">
-        <v>3348100</v>
+        <v>3312800</v>
       </c>
       <c r="J21" s="3">
-        <v>4316500</v>
+        <v>4274900</v>
       </c>
       <c r="K21" s="3">
         <v>2060100</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>139600</v>
+        <v>138300</v>
       </c>
       <c r="E22" s="3">
-        <v>87400</v>
+        <v>86600</v>
       </c>
       <c r="F22" s="3">
-        <v>100400</v>
+        <v>99500</v>
       </c>
       <c r="G22" s="3">
-        <v>92600</v>
+        <v>91800</v>
       </c>
       <c r="H22" s="3">
-        <v>82200</v>
+        <v>81400</v>
       </c>
       <c r="I22" s="3">
-        <v>75600</v>
+        <v>75000</v>
       </c>
       <c r="J22" s="3">
-        <v>66500</v>
+        <v>65900</v>
       </c>
       <c r="K22" s="3">
         <v>67200</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3843800</v>
+        <v>-3809900</v>
       </c>
       <c r="E23" s="3">
-        <v>5084200</v>
+        <v>5039400</v>
       </c>
       <c r="F23" s="3">
-        <v>-6046800</v>
+        <v>-5993500</v>
       </c>
       <c r="G23" s="3">
-        <v>208700</v>
+        <v>206800</v>
       </c>
       <c r="H23" s="3">
-        <v>87400</v>
+        <v>86600</v>
       </c>
       <c r="I23" s="3">
-        <v>2217300</v>
+        <v>2197800</v>
       </c>
       <c r="J23" s="3">
-        <v>3607700</v>
+        <v>3575900</v>
       </c>
       <c r="K23" s="3">
         <v>1455100</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-666500</v>
+        <v>-660600</v>
       </c>
       <c r="E24" s="3">
-        <v>606500</v>
+        <v>601200</v>
       </c>
       <c r="F24" s="3">
-        <v>-787800</v>
+        <v>-780900</v>
       </c>
       <c r="G24" s="3">
-        <v>99100</v>
+        <v>98300</v>
       </c>
       <c r="H24" s="3">
-        <v>197000</v>
+        <v>195200</v>
       </c>
       <c r="I24" s="3">
-        <v>491700</v>
+        <v>487400</v>
       </c>
       <c r="J24" s="3">
-        <v>562200</v>
+        <v>557200</v>
       </c>
       <c r="K24" s="3">
         <v>338400</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,67 +1202,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3177300</v>
+        <v>-3149300</v>
       </c>
       <c r="E26" s="3">
-        <v>4477700</v>
+        <v>4438200</v>
       </c>
       <c r="F26" s="3">
-        <v>-5259000</v>
+        <v>-5212600</v>
       </c>
       <c r="G26" s="3">
-        <v>109600</v>
+        <v>108600</v>
       </c>
       <c r="H26" s="3">
-        <v>-109600</v>
+        <v>-108600</v>
       </c>
       <c r="I26" s="3">
-        <v>1725600</v>
+        <v>1710400</v>
       </c>
       <c r="J26" s="3">
-        <v>3045600</v>
+        <v>3018700</v>
       </c>
       <c r="K26" s="3">
         <v>1116600</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3187700</v>
+        <v>-3159600</v>
       </c>
       <c r="E27" s="3">
-        <v>4476400</v>
+        <v>4436900</v>
       </c>
       <c r="F27" s="3">
-        <v>-5259000</v>
+        <v>-5212600</v>
       </c>
       <c r="G27" s="3">
-        <v>108300</v>
+        <v>107300</v>
       </c>
       <c r="H27" s="3">
-        <v>-95200</v>
+        <v>-94400</v>
       </c>
       <c r="I27" s="3">
-        <v>1710000</v>
+        <v>1694900</v>
       </c>
       <c r="J27" s="3">
-        <v>3027300</v>
+        <v>3000600</v>
       </c>
       <c r="K27" s="3">
         <v>1119300</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1327,15 +1292,15 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>56100</v>
+        <v>55600</v>
       </c>
       <c r="E29" s="3">
-        <v>-65200</v>
+        <v>-64600</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1344,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>185200</v>
+        <v>183600</v>
       </c>
       <c r="I29" s="3">
-        <v>73000</v>
+        <v>72400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1357,7 +1322,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1387,7 +1352,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1417,67 +1382,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2656900</v>
+        <v>2633500</v>
       </c>
       <c r="E32" s="3">
-        <v>-3670300</v>
+        <v>-3638000</v>
       </c>
       <c r="F32" s="3">
-        <v>5999800</v>
+        <v>5946900</v>
       </c>
       <c r="G32" s="3">
-        <v>1656500</v>
+        <v>1641900</v>
       </c>
       <c r="H32" s="3">
-        <v>1634300</v>
+        <v>1619900</v>
       </c>
       <c r="I32" s="3">
-        <v>35200</v>
+        <v>34900</v>
       </c>
       <c r="J32" s="3">
-        <v>-965200</v>
+        <v>-956700</v>
       </c>
       <c r="K32" s="3">
         <v>39500</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3131600</v>
+        <v>-3104000</v>
       </c>
       <c r="E33" s="3">
-        <v>4411200</v>
+        <v>4372300</v>
       </c>
       <c r="F33" s="3">
-        <v>-5259000</v>
+        <v>-5212600</v>
       </c>
       <c r="G33" s="3">
-        <v>108300</v>
+        <v>107300</v>
       </c>
       <c r="H33" s="3">
-        <v>90000</v>
+        <v>89200</v>
       </c>
       <c r="I33" s="3">
-        <v>1783000</v>
+        <v>1767300</v>
       </c>
       <c r="J33" s="3">
-        <v>3027300</v>
+        <v>3000600</v>
       </c>
       <c r="K33" s="3">
         <v>1119300</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1507,42 +1472,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3131600</v>
+        <v>-3104000</v>
       </c>
       <c r="E35" s="3">
-        <v>4411200</v>
+        <v>4372300</v>
       </c>
       <c r="F35" s="3">
-        <v>-5259000</v>
+        <v>-5212600</v>
       </c>
       <c r="G35" s="3">
-        <v>108300</v>
+        <v>107300</v>
       </c>
       <c r="H35" s="3">
-        <v>90000</v>
+        <v>89200</v>
       </c>
       <c r="I35" s="3">
-        <v>1783000</v>
+        <v>1767300</v>
       </c>
       <c r="J35" s="3">
-        <v>3027300</v>
+        <v>3000600</v>
       </c>
       <c r="K35" s="3">
         <v>1119300</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1572,7 +1537,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1586,7 +1551,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1600,37 +1565,37 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6447200</v>
+        <v>6390400</v>
       </c>
       <c r="E41" s="3">
-        <v>7673300</v>
+        <v>7605600</v>
       </c>
       <c r="F41" s="3">
-        <v>3569900</v>
+        <v>3538400</v>
       </c>
       <c r="G41" s="3">
-        <v>4115100</v>
+        <v>4078800</v>
       </c>
       <c r="H41" s="3">
-        <v>3693800</v>
+        <v>3661200</v>
       </c>
       <c r="I41" s="3">
-        <v>4831200</v>
+        <v>4788600</v>
       </c>
       <c r="J41" s="3">
-        <v>8154500</v>
+        <v>8082600</v>
       </c>
       <c r="K41" s="3">
         <v>1706600</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1647,230 +1612,230 @@
         <v>2600</v>
       </c>
       <c r="H42" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="I42" s="3">
-        <v>418700</v>
+        <v>415000</v>
       </c>
       <c r="J42" s="3">
-        <v>1989100</v>
+        <v>1971500</v>
       </c>
       <c r="K42" s="3">
         <v>32900</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8071100</v>
+        <v>7999900</v>
       </c>
       <c r="E43" s="3">
-        <v>16236100</v>
+        <v>16092900</v>
       </c>
       <c r="F43" s="3">
-        <v>8857600</v>
+        <v>8779500</v>
       </c>
       <c r="G43" s="3">
-        <v>7919800</v>
+        <v>7849900</v>
       </c>
       <c r="H43" s="3">
-        <v>6949400</v>
+        <v>6888100</v>
       </c>
       <c r="I43" s="3">
-        <v>6355900</v>
+        <v>6299900</v>
       </c>
       <c r="J43" s="3">
-        <v>15668700</v>
+        <v>15530500</v>
       </c>
       <c r="K43" s="3">
         <v>5099900</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5591600</v>
+        <v>5542300</v>
       </c>
       <c r="E44" s="3">
-        <v>10043200</v>
+        <v>9954600</v>
       </c>
       <c r="F44" s="3">
-        <v>4025100</v>
+        <v>3989600</v>
       </c>
       <c r="G44" s="3">
-        <v>3439500</v>
+        <v>3409100</v>
       </c>
       <c r="H44" s="3">
-        <v>3610300</v>
+        <v>3578500</v>
       </c>
       <c r="I44" s="3">
-        <v>4329000</v>
+        <v>4290800</v>
       </c>
       <c r="J44" s="3">
-        <v>10666600</v>
+        <v>10572600</v>
       </c>
       <c r="K44" s="3">
         <v>3372300</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1820800</v>
+        <v>1804800</v>
       </c>
       <c r="E45" s="3">
-        <v>357400</v>
+        <v>354200</v>
       </c>
       <c r="F45" s="3">
-        <v>314300</v>
+        <v>311600</v>
       </c>
       <c r="G45" s="3">
-        <v>326100</v>
+        <v>323200</v>
       </c>
       <c r="H45" s="3">
-        <v>330000</v>
+        <v>327100</v>
       </c>
       <c r="I45" s="3">
-        <v>783900</v>
+        <v>777000</v>
       </c>
       <c r="J45" s="3">
-        <v>845200</v>
+        <v>837700</v>
       </c>
       <c r="K45" s="3">
         <v>737400</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21938500</v>
+        <v>21745100</v>
       </c>
       <c r="E46" s="3">
-        <v>17108600</v>
+        <v>16957800</v>
       </c>
       <c r="F46" s="3">
-        <v>16770800</v>
+        <v>16623000</v>
       </c>
       <c r="G46" s="3">
-        <v>15803000</v>
+        <v>15663700</v>
       </c>
       <c r="H46" s="3">
-        <v>14592600</v>
+        <v>14464000</v>
       </c>
       <c r="I46" s="3">
-        <v>16718600</v>
+        <v>16571200</v>
       </c>
       <c r="J46" s="3">
-        <v>12512200</v>
+        <v>12401900</v>
       </c>
       <c r="K46" s="3">
         <v>10949100</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>566100</v>
+        <v>561100</v>
       </c>
       <c r="E47" s="3">
-        <v>523000</v>
+        <v>518400</v>
       </c>
       <c r="F47" s="3">
-        <v>1150400</v>
+        <v>1140300</v>
       </c>
       <c r="G47" s="3">
-        <v>794300</v>
+        <v>787300</v>
       </c>
       <c r="H47" s="3">
-        <v>743500</v>
+        <v>736900</v>
       </c>
       <c r="I47" s="3">
-        <v>819100</v>
+        <v>811900</v>
       </c>
       <c r="J47" s="3">
-        <v>4711200</v>
+        <v>4669600</v>
       </c>
       <c r="K47" s="3">
         <v>2225400</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6428900</v>
+        <v>6372300</v>
       </c>
       <c r="E48" s="3">
-        <v>6075500</v>
+        <v>6021900</v>
       </c>
       <c r="F48" s="3">
-        <v>5365900</v>
+        <v>5318600</v>
       </c>
       <c r="G48" s="3">
-        <v>4552000</v>
+        <v>4511900</v>
       </c>
       <c r="H48" s="3">
-        <v>4494700</v>
+        <v>4455000</v>
       </c>
       <c r="I48" s="3">
-        <v>4424200</v>
+        <v>4385200</v>
       </c>
       <c r="J48" s="3">
-        <v>10032800</v>
+        <v>9944300</v>
       </c>
       <c r="K48" s="3">
         <v>3078700</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6906300</v>
+        <v>6845400</v>
       </c>
       <c r="E49" s="3">
-        <v>7258500</v>
+        <v>7194500</v>
       </c>
       <c r="F49" s="3">
-        <v>6625900</v>
+        <v>6567500</v>
       </c>
       <c r="G49" s="3">
-        <v>6058500</v>
+        <v>6005100</v>
       </c>
       <c r="H49" s="3">
-        <v>6265900</v>
+        <v>6210700</v>
       </c>
       <c r="I49" s="3">
-        <v>6504600</v>
+        <v>6447200</v>
       </c>
       <c r="J49" s="3">
-        <v>11351400</v>
+        <v>11251300</v>
       </c>
       <c r="K49" s="3">
         <v>3795000</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1900,7 +1865,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1930,37 +1895,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5711600</v>
+        <v>5661200</v>
       </c>
       <c r="E52" s="3">
-        <v>5459800</v>
+        <v>5411700</v>
       </c>
       <c r="F52" s="3">
-        <v>3396400</v>
+        <v>3366500</v>
       </c>
       <c r="G52" s="3">
-        <v>1909500</v>
+        <v>1892700</v>
       </c>
       <c r="H52" s="3">
-        <v>2890400</v>
+        <v>2864900</v>
       </c>
       <c r="I52" s="3">
-        <v>1614700</v>
+        <v>1600500</v>
       </c>
       <c r="J52" s="3">
-        <v>3277700</v>
+        <v>3248800</v>
       </c>
       <c r="K52" s="3">
         <v>1577500</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1990,37 +1955,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41551400</v>
+        <v>41185000</v>
       </c>
       <c r="E54" s="3">
-        <v>36425500</v>
+        <v>36104300</v>
       </c>
       <c r="F54" s="3">
-        <v>33309500</v>
+        <v>33015800</v>
       </c>
       <c r="G54" s="3">
-        <v>29117400</v>
+        <v>28860700</v>
       </c>
       <c r="H54" s="3">
-        <v>28987000</v>
+        <v>28731400</v>
       </c>
       <c r="I54" s="3">
-        <v>30081300</v>
+        <v>29816100</v>
       </c>
       <c r="J54" s="3">
-        <v>23668000</v>
+        <v>23459300</v>
       </c>
       <c r="K54" s="3">
         <v>21625600</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2034,7 +1999,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2048,187 +2013,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4115100</v>
+        <v>4078800</v>
       </c>
       <c r="E57" s="3">
-        <v>17882100</v>
+        <v>17724400</v>
       </c>
       <c r="F57" s="3">
-        <v>2933400</v>
+        <v>2907500</v>
       </c>
       <c r="G57" s="3">
-        <v>2079100</v>
+        <v>2060700</v>
       </c>
       <c r="H57" s="3">
-        <v>2064700</v>
+        <v>2046500</v>
       </c>
       <c r="I57" s="3">
-        <v>2036000</v>
+        <v>2018100</v>
       </c>
       <c r="J57" s="3">
-        <v>14132200</v>
+        <v>14007600</v>
       </c>
       <c r="K57" s="3">
         <v>3773900</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1119100</v>
+        <v>1109200</v>
       </c>
       <c r="E58" s="3">
-        <v>213900</v>
+        <v>212000</v>
       </c>
       <c r="F58" s="3">
-        <v>224300</v>
+        <v>222400</v>
       </c>
       <c r="G58" s="3">
-        <v>546500</v>
+        <v>541700</v>
       </c>
       <c r="H58" s="3">
-        <v>88700</v>
+        <v>87900</v>
       </c>
       <c r="I58" s="3">
-        <v>270000</v>
+        <v>267600</v>
       </c>
       <c r="J58" s="3">
-        <v>388700</v>
+        <v>385300</v>
       </c>
       <c r="K58" s="3">
         <v>26300</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14136100</v>
+        <v>14011500</v>
       </c>
       <c r="E59" s="3">
-        <v>19370300</v>
+        <v>19199500</v>
       </c>
       <c r="F59" s="3">
-        <v>9277600</v>
+        <v>9195800</v>
       </c>
       <c r="G59" s="3">
-        <v>8034500</v>
+        <v>7963700</v>
       </c>
       <c r="H59" s="3">
-        <v>7870200</v>
+        <v>7800800</v>
       </c>
       <c r="I59" s="3">
-        <v>10450100</v>
+        <v>10358000</v>
       </c>
       <c r="J59" s="3">
-        <v>12594400</v>
+        <v>12483400</v>
       </c>
       <c r="K59" s="3">
         <v>5306700</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19370300</v>
+        <v>19199500</v>
       </c>
       <c r="E60" s="3">
-        <v>16213900</v>
+        <v>16070900</v>
       </c>
       <c r="F60" s="3">
-        <v>12435300</v>
+        <v>12325700</v>
       </c>
       <c r="G60" s="3">
-        <v>10660100</v>
+        <v>10566100</v>
       </c>
       <c r="H60" s="3">
-        <v>10023600</v>
+        <v>9935200</v>
       </c>
       <c r="I60" s="3">
-        <v>12756200</v>
+        <v>12643700</v>
       </c>
       <c r="J60" s="3">
-        <v>9401500</v>
+        <v>9318600</v>
       </c>
       <c r="K60" s="3">
         <v>9106900</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4961600</v>
+        <v>4917800</v>
       </c>
       <c r="E61" s="3">
-        <v>4442500</v>
+        <v>4403300</v>
       </c>
       <c r="F61" s="3">
-        <v>4154200</v>
+        <v>4117600</v>
       </c>
       <c r="G61" s="3">
-        <v>3760300</v>
+        <v>3727200</v>
       </c>
       <c r="H61" s="3">
-        <v>2860400</v>
+        <v>2835100</v>
       </c>
       <c r="I61" s="3">
-        <v>3292100</v>
+        <v>3263100</v>
       </c>
       <c r="J61" s="3">
-        <v>2154700</v>
+        <v>2135700</v>
       </c>
       <c r="K61" s="3">
         <v>1559100</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18101200</v>
+        <v>17941600</v>
       </c>
       <c r="E62" s="3">
-        <v>23002800</v>
+        <v>22800000</v>
       </c>
       <c r="F62" s="3">
-        <v>14288700</v>
+        <v>14162700</v>
       </c>
       <c r="G62" s="3">
-        <v>8154500</v>
+        <v>8082600</v>
       </c>
       <c r="H62" s="3">
-        <v>7772400</v>
+        <v>7703900</v>
       </c>
       <c r="I62" s="3">
-        <v>5812000</v>
+        <v>5760800</v>
       </c>
       <c r="J62" s="3">
-        <v>8857600</v>
+        <v>8779500</v>
       </c>
       <c r="K62" s="3">
         <v>5009100</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2258,7 +2223,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2288,7 +2253,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2318,37 +2283,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42952200</v>
+        <v>42573500</v>
       </c>
       <c r="E66" s="3">
-        <v>35212500</v>
+        <v>34902000</v>
       </c>
       <c r="F66" s="3">
-        <v>30880800</v>
+        <v>30608600</v>
       </c>
       <c r="G66" s="3">
-        <v>22577600</v>
+        <v>22378500</v>
       </c>
       <c r="H66" s="3">
-        <v>20662900</v>
+        <v>20480700</v>
       </c>
       <c r="I66" s="3">
-        <v>22770600</v>
+        <v>22569900</v>
       </c>
       <c r="J66" s="3">
-        <v>15869500</v>
+        <v>15729600</v>
       </c>
       <c r="K66" s="3">
         <v>15676400</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2362,7 +2327,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2392,7 +2357,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2422,7 +2387,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2452,7 +2417,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2482,37 +2447,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3161600</v>
+        <v>-3133800</v>
       </c>
       <c r="E72" s="3">
-        <v>628700</v>
+        <v>623100</v>
       </c>
       <c r="F72" s="3">
-        <v>1853400</v>
+        <v>1837100</v>
       </c>
       <c r="G72" s="3">
-        <v>5956800</v>
+        <v>5904300</v>
       </c>
       <c r="H72" s="3">
-        <v>7705900</v>
+        <v>7637900</v>
       </c>
       <c r="I72" s="3">
-        <v>6804600</v>
+        <v>6744600</v>
       </c>
       <c r="J72" s="3">
-        <v>14925200</v>
+        <v>14793600</v>
       </c>
       <c r="K72" s="3">
         <v>5456800</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2542,7 +2507,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2572,7 +2537,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2602,37 +2567,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1400800</v>
+        <v>-1388500</v>
       </c>
       <c r="E76" s="3">
-        <v>1213000</v>
+        <v>1202300</v>
       </c>
       <c r="F76" s="3">
-        <v>2428600</v>
+        <v>2407200</v>
       </c>
       <c r="G76" s="3">
-        <v>6539800</v>
+        <v>6482100</v>
       </c>
       <c r="H76" s="3">
-        <v>8324100</v>
+        <v>8250700</v>
       </c>
       <c r="I76" s="3">
-        <v>7310700</v>
+        <v>7246200</v>
       </c>
       <c r="J76" s="3">
-        <v>7798500</v>
+        <v>7729700</v>
       </c>
       <c r="K76" s="3">
         <v>5949300</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2662,12 +2627,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2697,37 +2662,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3131600</v>
+        <v>-3104000</v>
       </c>
       <c r="E81" s="3">
-        <v>4411200</v>
+        <v>4372300</v>
       </c>
       <c r="F81" s="3">
-        <v>-5259000</v>
+        <v>-5212600</v>
       </c>
       <c r="G81" s="3">
-        <v>108300</v>
+        <v>107300</v>
       </c>
       <c r="H81" s="3">
-        <v>90000</v>
+        <v>89200</v>
       </c>
       <c r="I81" s="3">
-        <v>1783000</v>
+        <v>1767300</v>
       </c>
       <c r="J81" s="3">
-        <v>3027300</v>
+        <v>3000600</v>
       </c>
       <c r="K81" s="3">
         <v>1119300</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2741,37 +2706,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1176500</v>
+        <v>1166100</v>
       </c>
       <c r="E83" s="3">
-        <v>1026500</v>
+        <v>1017400</v>
       </c>
       <c r="F83" s="3">
-        <v>1082600</v>
+        <v>1073000</v>
       </c>
       <c r="G83" s="3">
-        <v>1017400</v>
+        <v>1008400</v>
       </c>
       <c r="H83" s="3">
-        <v>967800</v>
+        <v>959300</v>
       </c>
       <c r="I83" s="3">
-        <v>1043400</v>
+        <v>1034200</v>
       </c>
       <c r="J83" s="3">
-        <v>635200</v>
+        <v>629600</v>
       </c>
       <c r="K83" s="3">
         <v>539900</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2801,7 +2766,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2831,7 +2796,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2861,7 +2826,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2891,7 +2856,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2921,37 +2886,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2903400</v>
+        <v>2877800</v>
       </c>
       <c r="E89" s="3">
-        <v>1972100</v>
+        <v>1954700</v>
       </c>
       <c r="F89" s="3">
-        <v>1840400</v>
+        <v>1824200</v>
       </c>
       <c r="G89" s="3">
-        <v>1426900</v>
+        <v>1414300</v>
       </c>
       <c r="H89" s="3">
-        <v>1696900</v>
+        <v>1681900</v>
       </c>
       <c r="I89" s="3">
-        <v>2660800</v>
+        <v>2637300</v>
       </c>
       <c r="J89" s="3">
-        <v>1636900</v>
+        <v>1622500</v>
       </c>
       <c r="K89" s="3">
         <v>1719700</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2965,37 +2930,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1180400</v>
+        <v>-1170000</v>
       </c>
       <c r="E91" s="3">
-        <v>-952100</v>
+        <v>-943800</v>
       </c>
       <c r="F91" s="3">
-        <v>-763000</v>
+        <v>-756300</v>
       </c>
       <c r="G91" s="3">
-        <v>-635200</v>
+        <v>-629600</v>
       </c>
       <c r="H91" s="3">
-        <v>-845200</v>
+        <v>-837700</v>
       </c>
       <c r="I91" s="3">
-        <v>-872600</v>
+        <v>-864900</v>
       </c>
       <c r="J91" s="3">
-        <v>-567400</v>
+        <v>-562400</v>
       </c>
       <c r="K91" s="3">
         <v>-1020500</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3025,7 +2990,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3055,37 +3020,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1271700</v>
+        <v>-1260500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1505200</v>
+        <v>-1491900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1777800</v>
+        <v>-1762100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1297800</v>
+        <v>-1286300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2564300</v>
+        <v>-2541700</v>
       </c>
       <c r="I94" s="3">
-        <v>-965200</v>
+        <v>-956700</v>
       </c>
       <c r="J94" s="3">
-        <v>553000</v>
+        <v>548200</v>
       </c>
       <c r="K94" s="3">
         <v>-2906200</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3099,7 +3064,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3129,7 +3094,7 @@
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3159,7 +3124,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3189,7 +3154,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3219,90 +3184,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>915600</v>
+        <v>907600</v>
       </c>
       <c r="E100" s="3">
-        <v>-165600</v>
+        <v>-164200</v>
       </c>
       <c r="F100" s="3">
-        <v>-963900</v>
+        <v>-955400</v>
       </c>
       <c r="G100" s="3">
-        <v>288300</v>
+        <v>285700</v>
       </c>
       <c r="H100" s="3">
-        <v>-610400</v>
+        <v>-605000</v>
       </c>
       <c r="I100" s="3">
-        <v>177400</v>
+        <v>175800</v>
       </c>
       <c r="J100" s="3">
-        <v>-431700</v>
+        <v>-427900</v>
       </c>
       <c r="K100" s="3">
         <v>-862500</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>86100</v>
+        <v>85300</v>
       </c>
       <c r="E101" s="3">
-        <v>-90000</v>
+        <v>-89200</v>
       </c>
       <c r="F101" s="3">
-        <v>373000</v>
+        <v>369700</v>
       </c>
       <c r="G101" s="3">
         <v>-7800</v>
       </c>
       <c r="H101" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="I101" s="3">
-        <v>-44300</v>
+        <v>-44000</v>
       </c>
       <c r="J101" s="3">
-        <v>-70400</v>
+        <v>-69800</v>
       </c>
       <c r="K101" s="3">
         <v>-5300</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2633400</v>
+        <v>2610200</v>
       </c>
       <c r="E102" s="3">
-        <v>211300</v>
+        <v>209400</v>
       </c>
       <c r="F102" s="3">
-        <v>-528200</v>
+        <v>-523600</v>
       </c>
       <c r="G102" s="3">
-        <v>409600</v>
+        <v>405900</v>
       </c>
       <c r="H102" s="3">
-        <v>-1467300</v>
+        <v>-1454400</v>
       </c>
       <c r="I102" s="3">
-        <v>1828600</v>
+        <v>1812500</v>
       </c>
       <c r="J102" s="3">
-        <v>1687800</v>
+        <v>1672900</v>
       </c>
       <c r="K102" s="3">
         <v>-2054200</v>
